--- a/Pages/ODK/ODKAssets/E1_Demarcation.xlsx
+++ b/Pages/ODK/ODKAssets/E1_Demarcation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Shared\ARD Projects\Global - ILRG (1871)\Shared Folders\Zambia\Zambia_Forms_Data_Catalogue_dev\Revised Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariellelandau/Desktop/Tetra Tech/ilrg.github.io/Pages/ODK/ODKAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE167E0-EDF2-4A4B-8DC5-48167E65F12A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97449125-01DA-6F42-9073-FE626E9330B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4860" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29040" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="840">
   <si>
     <t>type</t>
   </si>
@@ -2556,6 +2556,9 @@
   </si>
   <si>
     <t>Please take a photo of the receipt.</t>
+  </si>
+  <si>
+    <t>allow_choice_duplicates</t>
   </si>
 </sst>
 </file>
@@ -2953,15 +2956,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="135" applyFont="1"/>
@@ -2972,17 +2974,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="136" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3001,19 +3003,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="136" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -3026,115 +3025,91 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="136" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3633,1368 +3608,1306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="26" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="26" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="26"/>
+    <col min="1" max="1" width="27.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="24" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" s="23" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="71" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="24" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-    </row>
-    <row r="9" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-    </row>
-    <row r="10" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-    </row>
-    <row r="11" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
         <v>752</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="58" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="48" t="s">
         <v>743</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="58" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="55" t="s">
         <v>792</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="55" t="s">
         <v>793</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="24">
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="56" t="s">
         <v>790</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="55" t="s">
         <v>795</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="57" t="s">
         <v>794</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="24">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="58" t="s">
         <v>798</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="J26" s="26" t="s">
+      <c r="D26" s="48"/>
+      <c r="J26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="68" t="s">
+      <c r="K26" s="58" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="58" t="s">
         <v>799</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:16" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="60" t="s">
         <v>807</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="61" t="s">
         <v>808</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="61" t="s">
         <v>809</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="59" t="s">
         <v>810</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="59" t="s">
         <v>803</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="70" t="s">
+      <c r="L28" s="59" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="J31" s="48" t="s">
+      <c r="J31" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36" t="s">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="90" t="s">
+      <c r="K32" s="32"/>
+      <c r="L32" s="70" t="s">
         <v>829</v>
       </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="52" t="s">
         <v>754</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70" t="s">
+    <row r="36" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="60" t="s">
         <v>805</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="61" t="s">
         <v>802</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="61" t="s">
         <v>811</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="59" t="s">
         <v>806</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="59" t="s">
         <v>803</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="70" t="s">
+      <c r="L36" s="59" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="M37" s="64" t="s">
+      <c r="C37" s="48"/>
+      <c r="M37" s="54" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K43" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="L52" s="26" t="s">
+      <c r="L52" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="24"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="B53" s="22"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="50" t="s">
         <v>748</v>
       </c>
-      <c r="G54" s="46"/>
-      <c r="J54" s="26" t="s">
+      <c r="G54" s="35"/>
+      <c r="J54" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
+    <row r="55" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="J55" s="36" t="s">
+      <c r="G55" s="40"/>
+      <c r="J55" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36" t="s">
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="36"/>
-      <c r="L56" s="90" t="s">
+      <c r="K56" s="32"/>
+      <c r="L56" s="70" t="s">
         <v>828</v>
       </c>
-      <c r="M56" s="36"/>
-    </row>
-    <row r="57" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L57" s="26" t="s">
+      <c r="L57" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="50" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G58" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="I59" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J59" s="26" t="s">
+      <c r="J59" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="48" t="s">
+      <c r="G61" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+    <row r="62" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="G62" s="48" t="s">
+      <c r="G62" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="J62" s="36" t="s">
+      <c r="J62" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="48" t="s">
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36" t="s">
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="36"/>
-      <c r="L63" s="90" t="s">
+      <c r="K63" s="32"/>
+      <c r="L63" s="70" t="s">
         <v>830</v>
       </c>
-      <c r="M63" s="36"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="M63" s="32"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G64" s="48"/>
-      <c r="L64" s="26" t="s">
+      <c r="G64" s="40"/>
+      <c r="L64" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I65" s="26" t="s">
+      <c r="I65" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J65" s="26" t="s">
+      <c r="J65" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="36" t="s">
+      <c r="G66" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J66" s="26" t="s">
+      <c r="J66" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="48" t="s">
+      <c r="G67" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G69" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J69" s="26" t="s">
+      <c r="J69" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E70" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G70" s="35" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+    <row r="71" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="J71" s="36" t="s">
+      <c r="J71" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36" t="s">
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K72" s="36"/>
-      <c r="L72" s="90" t="s">
+      <c r="K72" s="32"/>
+      <c r="L72" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="M72" s="36"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="M72" s="32"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L73" s="26" t="s">
+      <c r="L73" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="G74" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J74" s="26" t="s">
+      <c r="J74" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G75" s="36" t="s">
+      <c r="G75" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I75" s="26" t="s">
+      <c r="I75" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J75" s="26" t="s">
+      <c r="J75" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M78" s="10" t="s">
+      <c r="M78" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="95" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="75" t="s">
         <v>836</v>
       </c>
-      <c r="B80" s="96" t="s">
+      <c r="B80" s="76" t="s">
         <v>837</v>
       </c>
-      <c r="C80" s="95" t="s">
+      <c r="C80" s="75" t="s">
         <v>838</v>
       </c>
-      <c r="J80" s="95" t="s">
+      <c r="J80" s="75" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5006,7 +4919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F412"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
@@ -5015,3769 +4928,3650 @@
       <selection pane="bottomRight" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="76"/>
-    <col min="2" max="2" width="20" style="77"/>
-    <col min="3" max="3" width="25.625" style="76" customWidth="1"/>
-    <col min="4" max="4" width="20" style="78"/>
-    <col min="5" max="16384" width="20" style="76"/>
+    <col min="1" max="1" width="20" style="64"/>
+    <col min="2" max="2" width="20" style="65"/>
+    <col min="3" max="3" width="25.6640625" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="20" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="62" t="s">
         <v>812</v>
       </c>
-      <c r="D2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+    </row>
+    <row r="3" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="65" t="s">
         <v>813</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="64" t="s">
         <v>814</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+    </row>
+    <row r="4" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="64" t="s">
         <v>816</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="64" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="81"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="81"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="D10" s="81"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="81"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="64" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="64" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="64" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="64" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="64" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="79"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="64" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="64" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="64" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="64" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="65" t="s">
         <v>755</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="64" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="64" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="65" t="s">
         <v>756</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="64" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="D31" s="43"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="64" t="s">
         <v>818</v>
       </c>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="43" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="42" t="s">
         <v>819</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="64" t="s">
         <v>820</v>
       </c>
-      <c r="D37" s="51"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
+      <c r="D37" s="43"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="62" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="76" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="76" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="64" t="s">
         <v>759</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="62" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="76" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="62" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="76" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="64" t="s">
         <v>411</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="43" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="76" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="76" t="s">
+      <c r="C54" s="64" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="76" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="76" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="64" t="s">
         <v>760</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="43" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="76" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="65" t="s">
         <v>761</v>
       </c>
-      <c r="C58" s="82" t="s">
+      <c r="C58" s="66" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="76" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="76" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="76" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="76" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="C62" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="76" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C63" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="76" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="C64" s="76" t="s">
+      <c r="C64" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="76" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="76" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="C66" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="76" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="64" t="s">
         <v>440</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="76" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="76" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="76" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="76" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="76" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="C72" s="76" t="s">
+      <c r="C72" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="76" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="C74" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="76" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="76" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="76" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="C78" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="76" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="C80" s="76" t="s">
+      <c r="C80" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="76" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="C81" s="76" t="s">
+      <c r="C81" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="76" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="C82" s="76" t="s">
+      <c r="C82" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="76" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="43" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="50"/>
-      <c r="D84" s="51"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="76" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="42"/>
+      <c r="D84" s="43"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B85" s="77" t="s">
+      <c r="B85" s="65" t="s">
         <v>388</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="62" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="76" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B86" s="77" t="s">
+      <c r="B86" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="C86" s="73" t="s">
+      <c r="C86" s="62" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="76" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="65" t="s">
         <v>477</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="62" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="76" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B88" s="77" t="s">
+      <c r="B88" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C88" s="73" t="s">
+      <c r="C88" s="62" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="76" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B89" s="77" t="s">
+      <c r="B89" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="62" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="76" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="62" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="76" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="62" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="76" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B92" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="C92" s="73" t="s">
+      <c r="C92" s="62" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="76" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B93" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="62" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="76" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B94" s="77" t="s">
+      <c r="B94" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C94" s="73" t="s">
+      <c r="C94" s="62" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="76" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="73" t="s">
+      <c r="C95" s="62" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="76" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B96" s="77" t="s">
+      <c r="B96" s="65" t="s">
         <v>490</v>
       </c>
-      <c r="C96" s="73" t="s">
+      <c r="C96" s="62" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="76" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="62" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="76" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="73" t="s">
+      <c r="C98" s="62" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="76" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B99" s="77" t="s">
+      <c r="B99" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="C99" s="73" t="s">
+      <c r="C99" s="62" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="76" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="B100" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="73" t="s">
+      <c r="C100" s="62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="73"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="76" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="62"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="C102" s="76" t="s">
+      <c r="C102" s="64" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="76" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="B103" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="64" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="B104" s="77" t="s">
+      <c r="B104" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="C104" s="76" t="s">
+      <c r="C104" s="64" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="76" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="C106" s="76" t="s">
+      <c r="C106" s="64" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="76" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="65" t="s">
         <v>505</v>
       </c>
-      <c r="C107" s="76" t="s">
+      <c r="C107" s="64" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="76" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="C108" s="76" t="s">
+      <c r="C108" s="64" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="76" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="C109" s="76" t="s">
+      <c r="C109" s="64" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="76" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="65" t="s">
         <v>511</v>
       </c>
-      <c r="C110" s="76" t="s">
+      <c r="C110" s="64" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="76" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="65" t="s">
         <v>513</v>
       </c>
-      <c r="C111" s="76" t="s">
+      <c r="C111" s="64" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="76" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="76" t="s">
+      <c r="C113" s="64" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="76" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="65" t="s">
         <v>517</v>
       </c>
-      <c r="C114" s="76" t="s">
+      <c r="C114" s="64" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="76" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="65" t="s">
         <v>519</v>
       </c>
-      <c r="C115" s="76" t="s">
+      <c r="C115" s="64" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="76" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="65" t="s">
         <v>522</v>
       </c>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="64" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="76" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="65" t="s">
         <v>524</v>
       </c>
-      <c r="C118" s="76" t="s">
+      <c r="C118" s="64" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="76" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="65" t="s">
         <v>766</v>
       </c>
-      <c r="C119" s="76" t="s">
+      <c r="C119" s="64" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="76" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="65" t="s">
         <v>527</v>
       </c>
-      <c r="C120" s="76" t="s">
+      <c r="C120" s="64" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="76" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="65" t="s">
         <v>529</v>
       </c>
-      <c r="C121" s="76" t="s">
+      <c r="C121" s="64" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="76" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B122" s="77" t="s">
+      <c r="B122" s="65" t="s">
         <v>531</v>
       </c>
-      <c r="C122" s="76" t="s">
+      <c r="C122" s="64" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="76" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="B123" s="77" t="s">
+      <c r="B123" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="76" t="s">
+      <c r="C123" s="64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="79" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="B125" s="80" t="s">
+      <c r="B125" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="C125" s="79" t="s">
+      <c r="C125" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="D125" s="81"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="79" t="s">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="B126" s="80" t="s">
+      <c r="B126" s="65" t="s">
         <v>536</v>
       </c>
-      <c r="C126" s="79" t="s">
+      <c r="C126" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="D126" s="81"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="76" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="B127" s="77" t="s">
+      <c r="B127" s="65" t="s">
         <v>538</v>
       </c>
-      <c r="C127" s="76" t="s">
+      <c r="C127" s="64" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="76" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="77" t="s">
+      <c r="B129" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="C129" s="76" t="s">
+      <c r="C129" s="64" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="76" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B130" s="77" t="s">
+      <c r="B130" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="C130" s="76" t="s">
+      <c r="C130" s="64" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="76" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B131" s="77" t="s">
+      <c r="B131" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C131" s="76" t="s">
+      <c r="C131" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="76" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B132" s="77" t="s">
+      <c r="B132" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C132" s="76" t="s">
+      <c r="C132" s="64" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="76" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="C133" s="82" t="s">
+      <c r="C133" s="66" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="76" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="77" t="s">
+      <c r="B134" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="C134" s="82" t="s">
+      <c r="C134" s="66" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="76" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B135" s="77" t="s">
+      <c r="B135" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="C135" s="82" t="s">
+      <c r="C135" s="66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="76" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B136" s="77" t="s">
+      <c r="B136" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="82" t="s">
+      <c r="C136" s="66" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="76" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="77" t="s">
+      <c r="B137" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="C137" s="82" t="s">
+      <c r="C137" s="66" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="76" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C138" s="82" t="s">
+      <c r="C138" s="66" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="76" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B139" s="77" t="s">
+      <c r="B139" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C139" s="82" t="s">
+      <c r="C139" s="66" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="76" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="77" t="s">
+      <c r="B140" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="C140" s="82" t="s">
+      <c r="C140" s="66" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="76" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="77" t="s">
+      <c r="B141" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C141" s="82" t="s">
+      <c r="C141" s="66" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="76" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C142" s="82" t="s">
+      <c r="C142" s="66" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="82"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="76" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C143" s="66"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B144" s="77" t="s">
+      <c r="B144" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="C144" s="76" t="s">
+      <c r="C144" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="D144" s="76"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="76" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B145" s="77" t="s">
+      <c r="B145" s="65" t="s">
         <v>545</v>
       </c>
-      <c r="C145" s="52" t="s">
+      <c r="C145" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="D145" s="76"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="76" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B146" s="77" t="s">
+      <c r="B146" s="65" t="s">
         <v>547</v>
       </c>
-      <c r="C146" s="52" t="s">
+      <c r="C146" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="D146" s="76"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="76" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B147" s="77" t="s">
+      <c r="B147" s="65" t="s">
         <v>549</v>
       </c>
-      <c r="C147" s="76" t="s">
+      <c r="C147" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="D147" s="76"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="76" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B148" s="77" t="s">
+      <c r="B148" s="65" t="s">
         <v>551</v>
       </c>
-      <c r="C148" s="76" t="s">
+      <c r="C148" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="D148" s="76"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="76" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B149" s="77" t="s">
+      <c r="B149" s="65" t="s">
         <v>553</v>
       </c>
-      <c r="C149" s="76" t="s">
+      <c r="C149" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D149" s="76"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="76" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B150" s="77" t="s">
+      <c r="B150" s="65" t="s">
         <v>555</v>
       </c>
-      <c r="C150" s="76" t="s">
+      <c r="C150" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D150" s="76"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="76" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B151" s="77" t="s">
+      <c r="B151" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C151" s="76" t="s">
+      <c r="C151" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D151" s="76"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="76" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="B152" s="77" t="s">
+      <c r="B152" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="76" t="s">
+      <c r="C152" s="64" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="76" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B154" s="77" t="s">
+      <c r="B154" s="65" t="s">
         <v>559</v>
       </c>
-      <c r="C154" s="76" t="s">
+      <c r="C154" s="64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="76" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B155" s="77" t="s">
+      <c r="B155" s="65" t="s">
         <v>560</v>
       </c>
-      <c r="C155" s="76" t="s">
+      <c r="C155" s="64" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="76" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B156" s="77" t="s">
+      <c r="B156" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="C156" s="76" t="s">
+      <c r="C156" s="64" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="76" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B157" s="77" t="s">
+      <c r="B157" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="C157" s="76" t="s">
+      <c r="C157" s="64" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="76" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B158" s="77" t="s">
+      <c r="B158" s="65" t="s">
         <v>566</v>
       </c>
-      <c r="C158" s="76" t="s">
+      <c r="C158" s="64" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="76" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B159" s="77" t="s">
+      <c r="B159" s="65" t="s">
         <v>568</v>
       </c>
-      <c r="C159" s="76" t="s">
+      <c r="C159" s="64" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="76" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="B160" s="77" t="s">
+      <c r="B160" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="C160" s="76" t="s">
+      <c r="C160" s="64" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="83" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B162" s="84" t="s">
+      <c r="B162" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="C162" s="83" t="s">
+      <c r="C162" s="62" t="s">
         <v>572</v>
       </c>
-      <c r="D162" s="81"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="83" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B163" s="84" t="s">
+      <c r="B163" s="63" t="s">
         <v>573</v>
       </c>
-      <c r="C163" s="83" t="s">
+      <c r="C163" s="62" t="s">
         <v>574</v>
       </c>
-      <c r="D163" s="81"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="83" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B164" s="84" t="s">
+      <c r="B164" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C164" s="83" t="s">
+      <c r="C164" s="62" t="s">
         <v>575</v>
       </c>
-      <c r="D164" s="81"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="83" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B165" s="84" t="s">
+      <c r="B165" s="63" t="s">
         <v>576</v>
       </c>
-      <c r="C165" s="83" t="s">
+      <c r="C165" s="62" t="s">
         <v>577</v>
       </c>
-      <c r="D165" s="81"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="83" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B166" s="84" t="s">
+      <c r="B166" s="63" t="s">
         <v>578</v>
       </c>
-      <c r="C166" s="83" t="s">
+      <c r="C166" s="62" t="s">
         <v>579</v>
       </c>
-      <c r="D166" s="81"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="83" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="B167" s="84" t="s">
+      <c r="B167" s="63" t="s">
         <v>580</v>
       </c>
-      <c r="C167" s="83" t="s">
+      <c r="C167" s="62" t="s">
         <v>581</v>
       </c>
-      <c r="D167" s="81"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="83"/>
-      <c r="B168" s="84"/>
-      <c r="C168" s="83"/>
-      <c r="D168" s="81"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="76" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="62"/>
+      <c r="B168" s="63"/>
+      <c r="C168" s="62"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B169" s="77" t="s">
+      <c r="B169" s="65" t="s">
         <v>540</v>
       </c>
-      <c r="C169" s="85" t="s">
+      <c r="C169" s="67" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="76" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="77" t="s">
+      <c r="B170" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C170" s="85" t="s">
+      <c r="C170" s="67" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="92" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B171" s="93" t="s">
+      <c r="B171" s="73" t="s">
         <v>834</v>
       </c>
-      <c r="C171" s="94" t="s">
+      <c r="C171" s="74" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C172" s="85"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="76" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="67"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="B173" s="77" t="s">
+      <c r="B173" s="65" t="s">
         <v>583</v>
       </c>
-      <c r="C173" s="76" t="s">
+      <c r="C173" s="64" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="76" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="B174" s="77" t="s">
+      <c r="B174" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="76" t="s">
+      <c r="C174" s="64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="76" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B176" s="77" t="s">
+      <c r="B176" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C176" s="76" t="s">
+      <c r="C176" s="64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="76" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B177" s="77" t="s">
+      <c r="B177" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C177" s="76" t="s">
+      <c r="C177" s="64" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="76" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B178" s="77" t="s">
+      <c r="B178" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C178" s="76" t="s">
+      <c r="C178" s="64" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="76" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B179" s="77" t="s">
+      <c r="B179" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C179" s="76" t="s">
+      <c r="C179" s="64" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="76" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="B180" s="77" t="s">
+      <c r="B180" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C180" s="76" t="s">
+      <c r="C180" s="64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="76" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B182" s="77" t="s">
+      <c r="B182" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="C182" s="86" t="s">
+      <c r="C182" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="D182" s="76"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="76" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B183" s="77" t="s">
+      <c r="B183" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C183" s="86" t="s">
+      <c r="C183" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="D183" s="76"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="76" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B184" s="77" t="s">
+      <c r="B184" s="65" t="s">
         <v>585</v>
       </c>
-      <c r="C184" s="86" t="s">
+      <c r="C184" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="D184" s="76"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="76" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B185" s="77" t="s">
+      <c r="B185" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C185" s="86" t="s">
+      <c r="C185" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="D185" s="76"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="76"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="83" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="B187" s="53" t="s">
+      <c r="B187" s="45" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="81"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="83" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="B188" s="53" t="s">
+      <c r="B188" s="45" t="s">
         <v>589</v>
       </c>
-      <c r="C188" s="54" t="s">
+      <c r="C188" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="D188" s="81"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="83" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="B189" s="53" t="s">
+      <c r="B189" s="45" t="s">
         <v>591</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D189" s="81"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="83" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="B190" s="53" t="s">
+      <c r="B190" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="C190" s="54" t="s">
+      <c r="C190" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D190" s="81"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="83" t="s">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="B191" s="53" t="s">
+      <c r="B191" s="45" t="s">
         <v>595</v>
       </c>
-      <c r="C191" s="54" t="s">
+      <c r="C191" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D191" s="81"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="83"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="54"/>
-      <c r="D192" s="81"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="76" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="62"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="9"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="B193" s="77" t="s">
+      <c r="B193" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="C193" s="76" t="s">
+      <c r="C193" s="64" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="76" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="B194" s="87">
+      <c r="B194" s="63">
         <v>1</v>
       </c>
-      <c r="C194" s="76" t="s">
+      <c r="C194" s="64" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="87"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="76" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="63"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="B196" s="77" t="s">
+      <c r="B196" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="76" t="s">
+      <c r="C196" s="64" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="76" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="B197" s="77" t="s">
+      <c r="B197" s="65" t="s">
         <v>598</v>
       </c>
-      <c r="C197" s="76" t="s">
+      <c r="C197" s="64" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="76" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="B198" s="77" t="s">
+      <c r="B198" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="C198" s="76" t="s">
+      <c r="C198" s="64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="76" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="B199" s="77" t="s">
+      <c r="B199" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C199" s="76" t="s">
+      <c r="C199" s="64" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="76" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B201" s="77" t="s">
+      <c r="B201" s="65" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="76" t="s">
+      <c r="C201" s="64" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="76" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B202" s="77" t="s">
+      <c r="B202" s="65" t="s">
         <v>770</v>
       </c>
-      <c r="C202" s="76" t="s">
+      <c r="C202" s="64" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="76" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B203" s="77" t="s">
+      <c r="B203" s="65" t="s">
         <v>605</v>
       </c>
-      <c r="C203" s="76" t="s">
+      <c r="C203" s="64" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="76" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B204" s="77" t="s">
+      <c r="B204" s="65" t="s">
         <v>771</v>
       </c>
-      <c r="C204" s="76" t="s">
+      <c r="C204" s="64" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="76" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B205" s="77" t="s">
+      <c r="B205" s="65" t="s">
         <v>772</v>
       </c>
-      <c r="C205" s="76" t="s">
+      <c r="C205" s="64" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="76" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B206" s="77" t="s">
+      <c r="B206" s="65" t="s">
         <v>773</v>
       </c>
-      <c r="C206" s="76" t="s">
+      <c r="C206" s="64" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="76" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B207" s="77" t="s">
+      <c r="B207" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C207" s="76" t="s">
+      <c r="C207" s="64" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="76" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B208" s="77" t="s">
+      <c r="B208" s="65" t="s">
         <v>775</v>
       </c>
-      <c r="C208" s="76" t="s">
+      <c r="C208" s="64" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="76" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B209" s="77" t="s">
+      <c r="B209" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C209" s="76" t="s">
+      <c r="C209" s="64" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="76" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="B210" s="77" t="s">
+      <c r="B210" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C210" s="76" t="s">
+      <c r="C210" s="64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="76" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B212" s="77" t="s">
+      <c r="B212" s="65" t="s">
         <v>614</v>
       </c>
-      <c r="C212" s="76" t="s">
+      <c r="C212" s="64" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="76" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B213" s="77" t="s">
+      <c r="B213" s="65" t="s">
         <v>616</v>
       </c>
-      <c r="C213" s="76" t="s">
+      <c r="C213" s="64" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="76" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B214" s="77" t="s">
+      <c r="B214" s="65" t="s">
         <v>618</v>
       </c>
-      <c r="C214" s="76" t="s">
+      <c r="C214" s="64" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="76" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B215" s="77" t="s">
+      <c r="B215" s="65" t="s">
         <v>620</v>
       </c>
-      <c r="C215" s="76" t="s">
+      <c r="C215" s="64" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="76" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B216" s="77" t="s">
+      <c r="B216" s="65" t="s">
         <v>622</v>
       </c>
-      <c r="C216" s="76" t="s">
+      <c r="C216" s="64" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="76" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B217" s="77" t="s">
+      <c r="B217" s="65" t="s">
         <v>624</v>
       </c>
-      <c r="C217" s="76" t="s">
+      <c r="C217" s="64" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="76" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B218" s="77" t="s">
+      <c r="B218" s="65" t="s">
         <v>626</v>
       </c>
-      <c r="C218" s="76" t="s">
+      <c r="C218" s="64" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="76" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B219" s="77" t="s">
+      <c r="B219" s="65" t="s">
         <v>628</v>
       </c>
-      <c r="C219" s="76" t="s">
+      <c r="C219" s="64" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="76" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B220" s="77" t="s">
+      <c r="B220" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C220" s="76" t="s">
+      <c r="C220" s="64" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="76" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B221" s="77" t="s">
+      <c r="B221" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C221" s="76" t="s">
+      <c r="C221" s="64" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="76" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="B222" s="77" t="s">
+      <c r="B222" s="65" t="s">
         <v>631</v>
       </c>
-      <c r="C222" s="76" t="s">
+      <c r="C222" s="64" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="76" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B224" s="77" t="s">
+      <c r="B224" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C224" s="76" t="s">
+      <c r="C224" s="64" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="76" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B225" s="77" t="s">
+      <c r="B225" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C225" s="76" t="s">
+      <c r="C225" s="64" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="76" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B226" s="77" t="s">
+      <c r="B226" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C226" s="76" t="s">
+      <c r="C226" s="64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="76" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B227" s="77" t="s">
+      <c r="B227" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="76" t="s">
+      <c r="C227" s="64" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="76" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B229" s="77" t="s">
+      <c r="B229" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C229" s="76" t="s">
+      <c r="C229" s="64" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="76" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B230" s="77" t="s">
+      <c r="B230" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="C230" s="76" t="s">
+      <c r="C230" s="64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="76" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B231" s="77" t="s">
+      <c r="B231" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="C231" s="76" t="s">
+      <c r="C231" s="64" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="83" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B233" s="53" t="s">
+      <c r="B233" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="C233" s="54" t="s">
+      <c r="C233" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="D233" s="81"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="83" t="s">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B234" s="53" t="s">
+      <c r="B234" s="45" t="s">
         <v>636</v>
       </c>
-      <c r="C234" s="54" t="s">
+      <c r="C234" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="D234" s="81"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="83" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B235" s="53" t="s">
+      <c r="B235" s="45" t="s">
         <v>591</v>
       </c>
-      <c r="C235" s="54" t="s">
+      <c r="C235" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="D235" s="81"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="83" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B236" s="53" t="s">
+      <c r="B236" s="45" t="s">
         <v>639</v>
       </c>
-      <c r="C236" s="54" t="s">
+      <c r="C236" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="D236" s="81"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="83" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B237" s="53" t="s">
+      <c r="B237" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="C237" s="54" t="s">
+      <c r="C237" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="D237" s="81"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="83" t="s">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="62" t="s">
         <v>633</v>
       </c>
-      <c r="B238" s="80" t="s">
+      <c r="B238" s="65" t="s">
         <v>643</v>
       </c>
-      <c r="C238" s="79" t="s">
+      <c r="C238" s="64" t="s">
         <v>644</v>
       </c>
-      <c r="D238" s="81"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="83"/>
-      <c r="B239" s="80"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="81"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="76" t="s">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="62"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B240" s="77" t="s">
+      <c r="B240" s="65" t="s">
         <v>555</v>
       </c>
-      <c r="C240" s="76" t="s">
+      <c r="C240" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="D240" s="76"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="76" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B241" s="77" t="s">
+      <c r="B241" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C241" s="76" t="s">
+      <c r="C241" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="D241" s="76"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="76" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B242" s="77" t="s">
+      <c r="B242" s="65" t="s">
         <v>648</v>
       </c>
-      <c r="C242" s="76" t="s">
+      <c r="C242" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="D242" s="76"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="76" t="s">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B243" s="77" t="s">
+      <c r="B243" s="65" t="s">
         <v>650</v>
       </c>
-      <c r="C243" s="76" t="s">
+      <c r="C243" s="64" t="s">
         <v>651</v>
       </c>
-      <c r="D243" s="76"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="76" t="s">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B244" s="77" t="s">
+      <c r="B244" s="65" t="s">
         <v>652</v>
       </c>
-      <c r="C244" s="76" t="s">
+      <c r="C244" s="64" t="s">
         <v>653</v>
       </c>
-      <c r="D244" s="76"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="76" t="s">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B245" s="77" t="s">
+      <c r="B245" s="65" t="s">
         <v>654</v>
       </c>
-      <c r="C245" s="76" t="s">
+      <c r="C245" s="64" t="s">
         <v>655</v>
       </c>
-      <c r="D245" s="76"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="76" t="s">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="B246" s="77" t="s">
+      <c r="B246" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="C246" s="76" t="s">
+      <c r="C246" s="64" t="s">
         <v>822</v>
       </c>
-      <c r="D246" s="76"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D247" s="76"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="79" t="s">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B248" s="80" t="s">
+      <c r="B248" s="65" t="s">
         <v>657</v>
       </c>
-      <c r="C248" s="79" t="s">
+      <c r="C248" s="64" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="79" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B249" s="80" t="s">
+      <c r="B249" s="65" t="s">
         <v>659</v>
       </c>
-      <c r="C249" s="79" t="s">
+      <c r="C249" s="64" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="79" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B250" s="80" t="s">
+      <c r="B250" s="65" t="s">
         <v>661</v>
       </c>
-      <c r="C250" s="79" t="s">
+      <c r="C250" s="64" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="79" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B251" s="80" t="s">
+      <c r="B251" s="65" t="s">
         <v>663</v>
       </c>
-      <c r="C251" s="79" t="s">
+      <c r="C251" s="64" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="79" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B252" s="80" t="s">
+      <c r="B252" s="65" t="s">
         <v>665</v>
       </c>
-      <c r="C252" s="79" t="s">
+      <c r="C252" s="64" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="79" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B253" s="80" t="s">
+      <c r="B253" s="65" t="s">
         <v>667</v>
       </c>
-      <c r="C253" s="79" t="s">
+      <c r="C253" s="64" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="79" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B254" s="80" t="s">
+      <c r="B254" s="65" t="s">
         <v>669</v>
       </c>
-      <c r="C254" s="79" t="s">
+      <c r="C254" s="64" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="79" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B255" s="80" t="s">
+      <c r="B255" s="65" t="s">
         <v>671</v>
       </c>
-      <c r="C255" s="79" t="s">
+      <c r="C255" s="64" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="79" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B256" s="80" t="s">
+      <c r="B256" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="C256" s="79" t="s">
+      <c r="C256" s="64" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="79" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B257" s="80" t="s">
+      <c r="B257" s="65" t="s">
         <v>675</v>
       </c>
-      <c r="C257" s="79" t="s">
+      <c r="C257" s="64" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="79" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="B258" s="80" t="s">
+      <c r="B258" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C258" s="79" t="s">
+      <c r="C258" s="64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="79"/>
-      <c r="B259" s="80"/>
-      <c r="C259" s="79"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="76" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B260" s="77" t="s">
+      <c r="B260" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C260" s="76" t="s">
+      <c r="C260" s="64" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="76" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B261" s="77" t="s">
+      <c r="B261" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C261" s="76" t="s">
+      <c r="C261" s="64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="76" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B262" s="77" t="s">
+      <c r="B262" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C262" s="76" t="s">
+      <c r="C262" s="64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="76" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B263" s="77" t="s">
+      <c r="B263" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C263" s="76" t="s">
+      <c r="C263" s="64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="76" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="B264" s="77" t="s">
+      <c r="B264" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C264" s="76" t="s">
+      <c r="C264" s="64" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="76" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="77" t="s">
+      <c r="B266" s="65" t="s">
         <v>677</v>
       </c>
-      <c r="C266" s="73" t="s">
+      <c r="C266" s="62" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="76" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B267" s="77" t="s">
+      <c r="B267" s="65" t="s">
         <v>679</v>
       </c>
-      <c r="C267" s="73" t="s">
+      <c r="C267" s="62" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="76" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B268" s="77" t="s">
+      <c r="B268" s="65" t="s">
         <v>778</v>
       </c>
-      <c r="C268" s="73" t="s">
+      <c r="C268" s="62" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="76" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B269" s="77" t="s">
+      <c r="B269" s="65" t="s">
         <v>681</v>
       </c>
-      <c r="C269" s="73" t="s">
+      <c r="C269" s="62" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="76" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B270" s="77" t="s">
+      <c r="B270" s="65" t="s">
         <v>683</v>
       </c>
-      <c r="C270" s="73" t="s">
+      <c r="C270" s="62" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="76" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B271" s="77" t="s">
+      <c r="B271" s="65" t="s">
         <v>685</v>
       </c>
-      <c r="C271" s="73" t="s">
+      <c r="C271" s="62" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="76" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B272" s="77" t="s">
+      <c r="B272" s="65" t="s">
         <v>687</v>
       </c>
-      <c r="C272" s="73" t="s">
+      <c r="C272" s="62" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="76" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B273" s="77" t="s">
+      <c r="B273" s="65" t="s">
         <v>689</v>
       </c>
-      <c r="C273" s="73" t="s">
+      <c r="C273" s="62" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="76" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B274" s="77" t="s">
+      <c r="B274" s="65" t="s">
         <v>691</v>
       </c>
-      <c r="C274" s="73" t="s">
+      <c r="C274" s="62" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="76" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="77" t="s">
+      <c r="B275" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="C275" s="73" t="s">
+      <c r="C275" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="76" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B276" s="77" t="s">
+      <c r="B276" s="65" t="s">
         <v>693</v>
       </c>
-      <c r="C276" s="76" t="s">
+      <c r="C276" s="64" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="76" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B277" s="77" t="s">
+      <c r="B277" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C277" s="76" t="s">
+      <c r="C277" s="64" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="76" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B278" s="77" t="s">
+      <c r="B278" s="65" t="s">
         <v>695</v>
       </c>
-      <c r="C278" s="76" t="s">
+      <c r="C278" s="64" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="76" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B279" s="77" t="s">
+      <c r="B279" s="65" t="s">
         <v>697</v>
       </c>
-      <c r="C279" s="76" t="s">
+      <c r="C279" s="64" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="76" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B280" s="77" t="s">
+      <c r="B280" s="65" t="s">
         <v>699</v>
       </c>
-      <c r="C280" s="76" t="s">
+      <c r="C280" s="64" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="76" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B281" s="77" t="s">
+      <c r="B281" s="65" t="s">
         <v>701</v>
       </c>
-      <c r="C281" s="76" t="s">
+      <c r="C281" s="64" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="76" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B282" s="77" t="s">
+      <c r="B282" s="65" t="s">
         <v>703</v>
       </c>
-      <c r="C282" s="76" t="s">
+      <c r="C282" s="64" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="76" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B283" s="77" t="s">
+      <c r="B283" s="65" t="s">
         <v>705</v>
       </c>
-      <c r="C283" s="76" t="s">
+      <c r="C283" s="64" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="76" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B284" s="77" t="s">
+      <c r="B284" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C284" s="76" t="s">
+      <c r="C284" s="64" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="76" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B285" s="77" t="s">
+      <c r="B285" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C285" s="76" t="s">
+      <c r="C285" s="64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="76" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B286" s="77" t="s">
+      <c r="B286" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C286" s="76" t="s">
+      <c r="C286" s="64" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="76" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B287" s="77" t="s">
+      <c r="B287" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C287" s="76" t="s">
+      <c r="C287" s="64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="76" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B288" s="77" t="s">
+      <c r="B288" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="C288" s="76" t="s">
+      <c r="C288" s="64" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="76" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B289" s="77" t="s">
+      <c r="B289" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C289" s="76" t="s">
+      <c r="C289" s="64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="76" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B290" s="77" t="s">
+      <c r="B290" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C290" s="76" t="s">
+      <c r="C290" s="64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="76" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B291" s="77" t="s">
+      <c r="B291" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C291" s="76" t="s">
+      <c r="C291" s="64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="76" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B292" s="77" t="s">
+      <c r="B292" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="C292" s="76" t="s">
+      <c r="C292" s="64" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="76" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B293" s="77" t="s">
+      <c r="B293" s="65" t="s">
         <v>779</v>
       </c>
-      <c r="C293" s="76" t="s">
+      <c r="C293" s="64" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="76" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B294" s="77" t="s">
+      <c r="B294" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C294" s="76" t="s">
+      <c r="C294" s="64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="76" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B295" s="77" t="s">
+      <c r="B295" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C295" s="76" t="s">
+      <c r="C295" s="64" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="76" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="77" t="s">
+      <c r="B298" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="C298" s="76" t="s">
+      <c r="C298" s="64" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="76" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="B299" s="87">
+      <c r="B299" s="63">
         <v>1</v>
       </c>
-      <c r="C299" s="76" t="s">
+      <c r="C299" s="64" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B300" s="87"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="76" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B300" s="63"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B301" s="77" t="s">
+      <c r="B301" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C301" s="82" t="s">
+      <c r="C301" s="66" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="76" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B302" s="77" t="s">
+      <c r="B302" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C302" s="82" t="s">
+      <c r="C302" s="66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="76" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B303" s="77" t="s">
+      <c r="B303" s="65" t="s">
         <v>761</v>
       </c>
-      <c r="C303" s="82" t="s">
+      <c r="C303" s="66" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="76" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B304" s="77" t="s">
+      <c r="B304" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C304" s="82" t="s">
+      <c r="C304" s="66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="76" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B305" s="77" t="s">
+      <c r="B305" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C305" s="82" t="s">
+      <c r="C305" s="66" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="76" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B306" s="77" t="s">
+      <c r="B306" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C306" s="82" t="s">
+      <c r="C306" s="66" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="82"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="76" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="66"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B308" s="77" t="s">
+      <c r="B308" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C308" s="76" t="s">
+      <c r="C308" s="64" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="76" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B309" s="77" t="s">
+      <c r="B309" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C309" s="76" t="s">
+      <c r="C309" s="64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="76" t="s">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B310" s="77" t="s">
+      <c r="B310" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C310" s="76" t="s">
+      <c r="C310" s="64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="76" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B311" s="77" t="s">
+      <c r="B311" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C311" s="76" t="s">
+      <c r="C311" s="64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="76" t="s">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="B312" s="77" t="s">
+      <c r="B312" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C312" s="76" t="s">
+      <c r="C312" s="64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="79" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B314" s="80" t="s">
+      <c r="B314" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C314" s="79" t="s">
+      <c r="C314" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="79" t="s">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B315" s="80" t="s">
+      <c r="B315" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C315" s="79" t="s">
+      <c r="C315" s="64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="79"/>
-      <c r="B316" s="80"/>
-      <c r="C316" s="79"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="79" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="64" t="s">
         <v>708</v>
       </c>
-      <c r="B317" s="80" t="s">
+      <c r="B317" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C317" s="79" t="s">
+      <c r="C317" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="79" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="64" t="s">
         <v>708</v>
       </c>
-      <c r="B318" s="80" t="s">
+      <c r="B318" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C318" s="79" t="s">
+      <c r="C318" s="64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="79" t="s">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="64" t="s">
         <v>708</v>
       </c>
-      <c r="B319" s="80" t="s">
+      <c r="B319" s="65" t="s">
         <v>519</v>
       </c>
-      <c r="C319" s="79" t="s">
+      <c r="C319" s="64" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="79"/>
-      <c r="B320" s="80"/>
-      <c r="C320" s="79"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="79" t="s">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="64" t="s">
         <v>710</v>
       </c>
-      <c r="B321" s="80" t="s">
+      <c r="B321" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C321" s="79" t="s">
+      <c r="C321" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D321" s="81"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="79" t="s">
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="64" t="s">
         <v>710</v>
       </c>
-      <c r="B322" s="80" t="s">
+      <c r="B322" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C322" s="79" t="s">
+      <c r="C322" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D322" s="81"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="79" t="s">
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="64" t="s">
         <v>710</v>
       </c>
-      <c r="B323" s="80" t="s">
+      <c r="B323" s="65" t="s">
         <v>538</v>
       </c>
-      <c r="C323" s="79" t="s">
+      <c r="C323" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D323" s="81"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="73"/>
-      <c r="B324" s="74"/>
-      <c r="C324" s="73"/>
-      <c r="D324" s="75"/>
-      <c r="E324" s="73"/>
-      <c r="F324" s="73"/>
-    </row>
-    <row r="325" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="78" t="s">
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="62"/>
+      <c r="B324" s="63"/>
+      <c r="C324" s="62"/>
+      <c r="D324" s="62"/>
+      <c r="E324" s="62"/>
+      <c r="F324" s="62"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B325" s="88" t="s">
+      <c r="B325" s="69" t="s">
         <v>712</v>
       </c>
-      <c r="C325" s="78" t="s">
+      <c r="C325" s="64" t="s">
         <v>713</v>
       </c>
-      <c r="D325" s="89"/>
-    </row>
-    <row r="326" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="78" t="s">
+      <c r="D325" s="62"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B326" s="88" t="s">
+      <c r="B326" s="69" t="s">
         <v>714</v>
       </c>
-      <c r="C326" s="78" t="s">
+      <c r="C326" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="D326" s="89"/>
-    </row>
-    <row r="327" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="78" t="s">
+      <c r="D326" s="62"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B327" s="88" t="s">
+      <c r="B327" s="69" t="s">
         <v>716</v>
       </c>
-      <c r="C327" s="78" t="s">
+      <c r="C327" s="64" t="s">
         <v>717</v>
       </c>
-      <c r="D327" s="89"/>
-    </row>
-    <row r="328" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="78" t="s">
+      <c r="D327" s="62"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B328" s="88" t="s">
+      <c r="B328" s="69" t="s">
         <v>718</v>
       </c>
-      <c r="C328" s="78" t="s">
+      <c r="C328" s="64" t="s">
         <v>719</v>
       </c>
-      <c r="D328" s="89"/>
-    </row>
-    <row r="329" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="78" t="s">
+      <c r="D328" s="62"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B329" s="88" t="s">
+      <c r="B329" s="69" t="s">
         <v>720</v>
       </c>
-      <c r="C329" s="78" t="s">
+      <c r="C329" s="64" t="s">
         <v>721</v>
       </c>
-      <c r="D329" s="89"/>
-    </row>
-    <row r="330" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="78" t="s">
+      <c r="D329" s="62"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B330" s="88" t="s">
+      <c r="B330" s="69" t="s">
         <v>722</v>
       </c>
-      <c r="C330" s="78" t="s">
+      <c r="C330" s="64" t="s">
         <v>723</v>
       </c>
-      <c r="D330" s="89"/>
-    </row>
-    <row r="331" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="78" t="s">
+      <c r="D330" s="62"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B331" s="88" t="s">
+      <c r="B331" s="69" t="s">
         <v>724</v>
       </c>
-      <c r="C331" s="78" t="s">
+      <c r="C331" s="64" t="s">
         <v>725</v>
       </c>
-      <c r="D331" s="89"/>
-    </row>
-    <row r="332" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="78" t="s">
+      <c r="D331" s="62"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B332" s="88" t="s">
+      <c r="B332" s="69" t="s">
         <v>726</v>
       </c>
-      <c r="C332" s="78" t="s">
+      <c r="C332" s="64" t="s">
         <v>727</v>
       </c>
-      <c r="D332" s="89"/>
-    </row>
-    <row r="333" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="78" t="s">
+      <c r="D332" s="62"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="B333" s="88" t="s">
+      <c r="B333" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="C333" s="78" t="s">
+      <c r="C333" s="64" t="s">
         <v>729</v>
       </c>
-      <c r="D333" s="89"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="79"/>
-      <c r="B334" s="80"/>
-      <c r="C334" s="79"/>
-      <c r="D334" s="81"/>
-    </row>
-    <row r="335" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="78" t="s">
+      <c r="D333" s="62"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B335" s="88" t="s">
+      <c r="B335" s="69" t="s">
         <v>731</v>
       </c>
-      <c r="C335" s="78" t="s">
+      <c r="C335" s="64" t="s">
         <v>732</v>
       </c>
-      <c r="D335" s="89"/>
-    </row>
-    <row r="336" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="78" t="s">
+      <c r="D335" s="62"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B336" s="88" t="s">
+      <c r="B336" s="69" t="s">
         <v>733</v>
       </c>
-      <c r="C336" s="78" t="s">
+      <c r="C336" s="64" t="s">
         <v>734</v>
       </c>
-      <c r="D336" s="89"/>
-    </row>
-    <row r="337" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="78" t="s">
+      <c r="D336" s="62"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B337" s="88" t="s">
+      <c r="B337" s="69" t="s">
         <v>735</v>
       </c>
-      <c r="C337" s="78" t="s">
+      <c r="C337" s="64" t="s">
         <v>736</v>
       </c>
-      <c r="D337" s="89"/>
-    </row>
-    <row r="338" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="78" t="s">
+      <c r="D337" s="62"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B338" s="88" t="s">
+      <c r="B338" s="69" t="s">
         <v>395</v>
       </c>
-      <c r="C338" s="78" t="s">
+      <c r="C338" s="64" t="s">
         <v>781</v>
       </c>
-      <c r="D338" s="89"/>
-    </row>
-    <row r="339" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="78" t="s">
+      <c r="D338" s="62"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B339" s="88" t="s">
+      <c r="B339" s="69" t="s">
         <v>547</v>
       </c>
-      <c r="C339" s="78" t="s">
+      <c r="C339" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="D339" s="89"/>
-    </row>
-    <row r="340" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="78" t="s">
+      <c r="D339" s="62"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B340" s="88" t="s">
+      <c r="B340" s="69" t="s">
         <v>718</v>
       </c>
-      <c r="C340" s="78" t="s">
+      <c r="C340" s="64" t="s">
         <v>737</v>
       </c>
-      <c r="D340" s="89"/>
-    </row>
-    <row r="341" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="78" t="s">
+      <c r="D340" s="62"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B341" s="88" t="s">
+      <c r="B341" s="69" t="s">
         <v>555</v>
       </c>
-      <c r="C341" s="78" t="s">
+      <c r="C341" s="64" t="s">
         <v>738</v>
       </c>
-      <c r="D341" s="89"/>
-    </row>
-    <row r="342" spans="1:4" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="78" t="s">
+      <c r="D341" s="62"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="B342" s="88" t="s">
+      <c r="B342" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="C342" s="78" t="s">
+      <c r="C342" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="D342" s="89"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="76" t="s">
+      <c r="D342" s="62"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="64" t="s">
         <v>739</v>
       </c>
-      <c r="B344" s="77" t="s">
+      <c r="B344" s="65" t="s">
         <v>740</v>
       </c>
-      <c r="C344" s="76" t="s">
+      <c r="C344" s="64" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="76" t="s">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="64" t="s">
         <v>739</v>
       </c>
-      <c r="B345" s="87">
+      <c r="B345" s="63">
         <v>1</v>
       </c>
-      <c r="C345" s="76" t="s">
+      <c r="C345" s="64" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="76" t="s">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="B347" s="77" t="s">
+      <c r="B347" s="65" t="s">
         <v>783</v>
       </c>
-      <c r="C347" s="76" t="s">
+      <c r="C347" s="64" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="76" t="s">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="B348" s="77" t="s">
+      <c r="B348" s="65" t="s">
         <v>785</v>
       </c>
-      <c r="C348" s="76" t="s">
+      <c r="C348" s="64" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="76" t="s">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="B349" s="77" t="s">
+      <c r="B349" s="65" t="s">
         <v>787</v>
       </c>
-      <c r="C349" s="76" t="s">
+      <c r="C349" s="64" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="76" t="s">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="B350" s="77" t="s">
+      <c r="B350" s="65" t="s">
         <v>722</v>
       </c>
-      <c r="C350" s="76" t="s">
+      <c r="C350" s="64" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="76"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="76" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="B352" s="77" t="s">
+      <c r="B352" s="65" t="s">
         <v>824</v>
       </c>
-      <c r="C352" s="85" t="s">
+      <c r="C352" s="67" t="s">
         <v>825</v>
       </c>
-      <c r="D352" s="76"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="76" t="s">
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="B353" s="77" t="s">
+      <c r="B353" s="65" t="s">
         <v>826</v>
       </c>
-      <c r="C353" s="76" t="s">
+      <c r="C353" s="64" t="s">
         <v>827</v>
       </c>
-      <c r="D353" s="76"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="76" t="s">
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="B354" s="77" t="s">
+      <c r="B354" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C354" s="76" t="s">
+      <c r="C354" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D354" s="76"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="73"/>
-      <c r="B356" s="74"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="73"/>
-      <c r="B365" s="74"/>
-      <c r="D365" s="75"/>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="73"/>
-      <c r="B373" s="74"/>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="55"/>
-      <c r="B401" s="56"/>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="79"/>
-      <c r="B407" s="80"/>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="79"/>
-      <c r="B408" s="80"/>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="79"/>
-      <c r="B409" s="80"/>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="79"/>
-      <c r="B410" s="80"/>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="79"/>
-      <c r="B411" s="80"/>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="79"/>
-      <c r="B412" s="80"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="62"/>
+      <c r="B356" s="63"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="62"/>
+      <c r="B365" s="63"/>
+      <c r="D365" s="62"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="62"/>
+      <c r="B373" s="63"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="46"/>
+      <c r="B401" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
@@ -8797,173 +8591,173 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="16.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -8978,47 +8772,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="75" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>20190807</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="58" t="s">
         <v>801</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
